--- a/data_pipeline/dimensional_data_CSVs/Weather_codes.xlsx
+++ b/data_pipeline/dimensional_data_CSVs/Weather_codes.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tofad\weather_data_pipeline\data_pipeline\dimensional_data_CSVs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542CF01E-3600-47E9-8277-3D5628A2063F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1512" yWindow="0" windowWidth="16476" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,103 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Clear sky</t>
+  </si>
+  <si>
+    <t>Mainly clear</t>
+  </si>
+  <si>
+    <t>Partly cloudy</t>
+  </si>
+  <si>
+    <t>Overcast</t>
+  </si>
+  <si>
+    <t>Fog</t>
+  </si>
+  <si>
+    <t>Depositing rime fog</t>
+  </si>
+  <si>
+    <t>Light drizzle</t>
+  </si>
+  <si>
+    <t>Moderate drizzle</t>
+  </si>
+  <si>
+    <t>Dense drizzle</t>
+  </si>
+  <si>
+    <t>Light freezing drizzle</t>
+  </si>
+  <si>
+    <t>Dense freezing drizzle</t>
+  </si>
+  <si>
+    <t>Slight rain</t>
+  </si>
+  <si>
+    <t>Moderate rain</t>
+  </si>
+  <si>
+    <t>Heavy rain</t>
+  </si>
+  <si>
+    <t>Light freezing rain</t>
+  </si>
+  <si>
+    <t>Heavy freezing rain</t>
+  </si>
+  <si>
+    <t>Slight snow fall</t>
+  </si>
+  <si>
+    <t>Moderate snow fall</t>
+  </si>
+  <si>
+    <t>Heavy snow fall</t>
+  </si>
+  <si>
+    <t>Snow grains</t>
+  </si>
+  <si>
+    <t>Slight rain showers</t>
+  </si>
+  <si>
+    <t>Moderate rain showers</t>
+  </si>
+  <si>
+    <t>Violent rain showers</t>
+  </si>
+  <si>
+    <t>Slight snow showers</t>
+  </si>
+  <si>
+    <t>Heavy snow showers</t>
+  </si>
+  <si>
+    <t>Thunderstorm</t>
+  </si>
+  <si>
+    <t>Thunderstorm with slight hail</t>
+  </si>
+  <si>
+    <t>Thunderstorm with heavy hail</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +431,252 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>86</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>